--- a/テーブル設計.xlsx
+++ b/テーブル設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\勉強用フォルダ\sales_information_ver.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\勉強用フォルダ\SalesInformationNew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0AE087-AB9C-48BB-A7E0-18BA5BA1B4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2FC970-55BC-4395-97A4-F48517CE1A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15825" yWindow="600" windowWidth="12705" windowHeight="15000" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -1328,44 +1328,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1805,8 +1805,8 @@
   </sheetPr>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1840,19 +1840,19 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="O2"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1966,13 +1966,13 @@
         <v>43</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" s="20">
         <v>16</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -2026,7 +2026,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>21</v>
@@ -2229,17 +2229,17 @@
       <c r="O16"/>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="4"/>
       <c r="O17"/>
     </row>
@@ -2252,19 +2252,19 @@
       <c r="O18"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
       <c r="O19"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2461,19 +2461,19 @@
       <c r="K26" s="39"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
     </row>
     <row r="30" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -2699,7 +2699,7 @@
     <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 K1 I9:I10 K4 H5:H10 J5:K10 H11:K17 B3:B18 K21 H22:H25 J22:K25 H26:K26 B20:B28 B30:B65505 K31 H32:H35 J32:K35 H36:K36" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="6" orientation="landscape" useFirstPageNumber="1" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="94" firstPageNumber="6" orientation="landscape" useFirstPageNumber="1" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2713,634 +2713,634 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="47" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="47" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="47" customWidth="1"/>
-    <col min="6" max="6" width="14" style="47" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="47" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="47" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="47" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="47" customWidth="1"/>
-    <col min="11" max="13" width="9" style="47"/>
-    <col min="14" max="14" width="10.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="47" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="47"/>
+    <col min="1" max="1" width="21.625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="46" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="46" customWidth="1"/>
+    <col min="6" max="6" width="14" style="46" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="46" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="46" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="46" customWidth="1"/>
+    <col min="11" max="13" width="9" style="46"/>
+    <col min="14" max="14" width="10.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="46" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="49" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="49">
+      <c r="A3" s="48">
         <v>1</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="48">
         <v>4102</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="48">
         <v>1</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="48">
         <v>2550</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="48">
         <v>2550</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49" t="s">
+      <c r="M3" s="48"/>
+      <c r="N3" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="48">
+      <c r="O3" s="47">
         <f ca="1">NOW()</f>
-        <v>44462.604567361108</v>
+        <v>44462.669297337961</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="49">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="48">
         <v>4102</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="48">
         <v>8</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="48">
         <v>3090</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="48">
         <v>24720</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49" t="s">
+      <c r="M4" s="48"/>
+      <c r="N4" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="47">
         <f ca="1">TODAY()</f>
         <v>44462</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="48">
         <v>4102</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="48">
         <v>1</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="48">
         <v>20000</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="48">
         <v>20000</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49" t="s">
+      <c r="M5" s="48"/>
+      <c r="N5" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="47">
         <f ca="1">TODAY()</f>
         <v>44462</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="49">
+      <c r="A6" s="48">
         <v>4</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>4102</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="48">
         <v>2</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="48">
         <v>90200</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <v>180400</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49" t="s">
+      <c r="M6" s="48"/>
+      <c r="N6" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="47">
         <f ca="1">TODAY()</f>
         <v>44462</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="49">
+      <c r="A7" s="48">
         <v>5</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <v>1111</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="48">
         <v>1</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="48">
         <v>90200</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="48">
         <v>90200</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49" t="s">
+      <c r="M7" s="48"/>
+      <c r="N7" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="47">
         <f ca="1">TODAY()</f>
         <v>44462</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="49">
+      <c r="A15" s="48">
         <v>4102</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="P15" s="52"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="49">
+      <c r="A16" s="48">
         <v>1111</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="52"/>
+      <c r="P16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="O17" s="52"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="O18" s="52"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="49">
+      <c r="A21" s="48">
         <v>1</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="48">
         <v>2550</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="49">
+      <c r="A22" s="48">
         <v>2</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="48">
         <v>3090</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="49">
+      <c r="A23" s="48">
         <v>3</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="48">
         <v>20000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="49">
+      <c r="A24" s="48">
         <v>4</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="48">
         <v>90200</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="50" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="49" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="49">
+      <c r="A29" s="48">
         <v>1</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="48">
         <v>4102</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="48">
         <v>1</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="48">
         <v>1</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="48">
         <v>2550</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49" t="s">
+      <c r="G29" s="48"/>
+      <c r="H29" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="47">
         <f ca="1">NOW()</f>
-        <v>44462.604567361108</v>
+        <v>44462.669297337961</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="49">
+      <c r="A30" s="48">
         <v>2</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="48">
         <v>4102</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="48">
         <v>2</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="48">
         <v>8</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="48">
         <v>24720</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49" t="s">
+      <c r="G30" s="48"/>
+      <c r="H30" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="47">
         <f ca="1">TODAY()</f>
         <v>44462</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="49">
+      <c r="A31" s="48">
         <v>3</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="48">
         <v>4102</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="48">
         <v>3</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="48">
         <v>1</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="48">
         <v>20000</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49" t="s">
+      <c r="G31" s="48"/>
+      <c r="H31" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="47">
         <f ca="1">TODAY()</f>
         <v>44462</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="49">
+      <c r="A32" s="48">
         <v>4</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="48">
         <v>4102</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="48">
         <v>4</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="48">
         <v>2</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="48">
         <v>180400</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49" t="s">
+      <c r="G32" s="48"/>
+      <c r="H32" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="47">
         <f ca="1">TODAY()</f>
         <v>44462</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="49">
+      <c r="A33" s="48">
         <v>5</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="48">
         <v>1111</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="48">
         <v>4</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="48">
         <v>1</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="48">
         <v>90200</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49" t="s">
+      <c r="G33" s="48"/>
+      <c r="H33" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="47">
         <f ca="1">TODAY()</f>
         <v>44462</v>
       </c>
